--- a/data/bioassay_1.2.xlsx
+++ b/data/bioassay_1.2.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\Dropbox\PC\Desktop\MS Thesis\2023_nut_enrich_bioassays\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\Dropbox\PC\Desktop\MS Thesis\MS_Thesis_2023-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D304F7-2E65-497D-ACB8-858ACA80292D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416F69B0-B198-4BF8-8BFD-F4AB15378265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3764C991-449F-4921-A2F2-0996616C2EBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{3764C991-449F-4921-A2F2-0996616C2EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="31">
   <si>
     <t>Number</t>
   </si>
@@ -151,6 +152,9 @@
   </si>
   <si>
     <t>Chl_a_avg</t>
+  </si>
+  <si>
+    <t>percent_change_relative_to_control</t>
   </si>
 </sst>
 </file>
@@ -249,10 +253,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -571,7 +575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE0829B-7E6C-4D9D-A156-844F35DE92B5}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F36"/>
     </sheetView>
   </sheetViews>
@@ -1902,6 +1906,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{0535D1C4-2052-484E-B5BE-7D220EFFDAAA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H6">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3EB8DF98-61F1-4ED8-8DA2-9598ED0EF38D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1990,20 +2008,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H6">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3EB8DF98-61F1-4ED8-8DA2-9598ED0EF38D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="S1:S35">
     <cfRule type="dataBar" priority="1">
       <dataBar>
@@ -2034,6 +2038,19 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>B2:B6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3EB8DF98-61F1-4ED8-8DA2-9598ED0EF38D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:H6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7FF520E2-FBFB-4248-8EA4-5EE39937753D}">
@@ -2114,19 +2131,6 @@
           <xm:sqref>H2:H6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3EB8DF98-61F1-4ED8-8DA2-9598ED0EF38D}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B2:H6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9AB1E32B-9E32-43D6-8EBA-9113BEC1C144}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -2707,6 +2711,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{9227CA3D-02BE-40B1-A8FC-3471AEF5E8F2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:H6">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A6B2D2A7-CD1B-45A7-9CB5-F1616B3224D5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2795,34 +2813,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:H6">
-    <cfRule type="dataBar" priority="10">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A6B2D2A7-CD1B-45A7-9CB5-F1616B3224D5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S35">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EC3FCD0A-C255-468D-877B-0613702E998E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I2:I6">
     <cfRule type="dataBar" priority="8">
       <dataBar>
@@ -2833,6 +2823,20 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{6DF95781-BAD2-49E5-B2F3-6CE95EF2E749}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:O6">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C26BD6FE-9978-4B20-9C6A-F653F37E822C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2921,8 +2925,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:O6">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="S1:S35">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2930,7 +2934,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C26BD6FE-9978-4B20-9C6A-F653F37E822C}</x14:id>
+          <x14:id>{EC3FCD0A-C255-468D-877B-0613702E998E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2951,6 +2955,19 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>B2:B6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A6B2D2A7-CD1B-45A7-9CB5-F1616B3224D5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B2:H6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{091A7DDD-A4A6-40AC-86DD-A6E16DDB4F4F}">
@@ -3031,32 +3048,6 @@
           <xm:sqref>H2:H6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A6B2D2A7-CD1B-45A7-9CB5-F1616B3224D5}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>B2:H6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EC3FCD0A-C255-468D-877B-0613702E998E}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>S1:S35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6DF95781-BAD2-49E5-B2F3-6CE95EF2E749}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -3068,6 +3059,19 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>I2:I6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C26BD6FE-9978-4B20-9C6A-F653F37E822C}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I2:O6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{CE5B254A-0695-4454-9FC4-D966D29A7016}">
@@ -3148,7 +3152,7 @@
           <xm:sqref>O2:O6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C26BD6FE-9978-4B20-9C6A-F653F37E822C}">
+          <x14:cfRule type="dataBar" id="{EC3FCD0A-C255-468D-877B-0613702E998E}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -3158,7 +3162,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I2:O6</xm:sqref>
+          <xm:sqref>S1:S35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3168,15 +3172,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2860C6-24C8-4481-94CE-A30CDA5CB3B1}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -3189,8 +3193,11 @@
       <c r="D1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3201,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3214,8 +3221,12 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="G3">
+        <f>(B3/B3)*100</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3228,8 +3239,12 @@
       <c r="D4">
         <v>17.897070059610876</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="G4">
+        <f>(B4/B3)*100</f>
+        <v>608.3171560476577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3242,8 +3257,12 @@
       <c r="D5">
         <v>1.6006992611624384</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="G5">
+        <f>(B5/B3)*100</f>
+        <v>145.46346935065685</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3256,8 +3275,12 @@
       <c r="D6">
         <v>0.86729511582682361</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="G6">
+        <f>(B6/B3)*100</f>
+        <v>124.63313745002462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3270,8 +3293,12 @@
       <c r="D7">
         <v>18.863867400696545</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="G7">
+        <f>(B7/B3)*100</f>
+        <v>635.77638111959618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3283,6 +3310,106 @@
       </c>
       <c r="D8">
         <v>25.410820973393562</v>
+      </c>
+      <c r="G8">
+        <f>(B8/B3)*100</f>
+        <v>821.7246290598938</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF182D9B-7938-468C-AA1D-EBC30C46AEAA}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>3.5208471417267924</v>
+      </c>
+      <c r="J1">
+        <f>((I1-I1)/I1)*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>21.417917201337669</v>
+      </c>
+      <c r="C2">
+        <f>((B2-I1)/I1)*100</f>
+        <v>508.3171560476577</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>5.1215464028892308</v>
+      </c>
+      <c r="C3">
+        <f>((B3-I1)/I1)*100</f>
+        <v>45.463469350656858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>4.388142257553616</v>
+      </c>
+      <c r="C4">
+        <f>((B4-I1)/I1)*100</f>
+        <v>24.633137450024613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>22.384714542423339</v>
+      </c>
+      <c r="C5">
+        <f>((B5-I1)/I1)*100</f>
+        <v>535.77638111959618</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>28.931668115120356</v>
+      </c>
+      <c r="C6">
+        <f>((B6-I1)/I1)*100</f>
+        <v>721.72462905989369</v>
       </c>
     </row>
   </sheetData>

--- a/data/bioassay_1.2.xlsx
+++ b/data/bioassay_1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathe\Dropbox\PC\Desktop\MS Thesis\MS_Thesis_2023-2024\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416F69B0-B198-4BF8-8BFD-F4AB15378265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094AF7D6-B493-4F3C-BE82-A4D0E1179ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{3764C991-449F-4921-A2F2-0996616C2EBB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3764C991-449F-4921-A2F2-0996616C2EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="32">
   <si>
     <t>Number</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>percent_change_relative_to_control</t>
+  </si>
+  <si>
+    <t>percent_of_control</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DE0829B-7E6C-4D9D-A156-844F35DE92B5}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F36"/>
     </sheetView>
   </sheetViews>
@@ -3325,8 +3328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF182D9B-7938-468C-AA1D-EBC30C46AEAA}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3341,6 +3344,9 @@
       <c r="C1" t="s">
         <v>30</v>
       </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
@@ -3363,6 +3369,10 @@
         <f>((B2-I1)/I1)*100</f>
         <v>508.3171560476577</v>
       </c>
+      <c r="D2">
+        <f>(B2/$I$1)*100</f>
+        <v>608.3171560476577</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
@@ -3375,6 +3385,10 @@
         <f>((B3-I1)/I1)*100</f>
         <v>45.463469350656858</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="0">(B3/$I$1)*100</f>
+        <v>145.46346935065685</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
@@ -3387,6 +3401,10 @@
         <f>((B4-I1)/I1)*100</f>
         <v>24.633137450024613</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>124.63313745002462</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -3399,6 +3417,10 @@
         <f>((B5-I1)/I1)*100</f>
         <v>535.77638111959618</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>635.77638111959618</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
@@ -3410,6 +3432,10 @@
       <c r="C6">
         <f>((B6-I1)/I1)*100</f>
         <v>721.72462905989369</v>
+      </c>
+      <c r="D6">
+        <f>(B6/$I$1)*100</f>
+        <v>821.7246290598938</v>
       </c>
     </row>
   </sheetData>
